--- a/docs/ws-11187.xlsx
+++ b/docs/ws-11187.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ClienteServidor" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>HTML</t>
   </si>
@@ -106,6 +106,48 @@
   <si>
     <t>HTTP</t>
   </si>
+  <si>
+    <t>elemento html</t>
+  </si>
+  <si>
+    <t>(0, 0)</t>
+  </si>
+  <si>
+    <t>(left, top)</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>(left, top, width, height)</t>
+  </si>
+  <si>
+    <t>"(0,0)"</t>
+  </si>
+  <si>
+    <t>"(0,100)</t>
+  </si>
+  <si>
+    <t>"(0,140)</t>
+  </si>
+  <si>
+    <t>"(0,560)</t>
+  </si>
+  <si>
+    <t>MARGEM ( margin )</t>
+  </si>
+  <si>
+    <t>BORDA ( border )</t>
+  </si>
+  <si>
+    <t>PREENCHIMENTO ( padding )</t>
+  </si>
+  <si>
+    <t>conteúdo</t>
+  </si>
 </sst>
 </file>
 
@@ -128,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +210,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -223,6 +289,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -240,7 +309,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2555,6 +2637,629 @@
           </a:avLst>
         </a:prstGeom>
         <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector de seta reta 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="190500"/>
+          <a:ext cx="0" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector de seta reta 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="190500"/>
+          <a:ext cx="3667125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector de seta reta 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6096000" y="1724025"/>
+          <a:ext cx="9525" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector de seta reta 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8524875" y="1743075"/>
+          <a:ext cx="9525" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector de seta reta 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6105526" y="2105025"/>
+          <a:ext cx="2428874" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Conector de seta reta 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8543925" y="771525"/>
+          <a:ext cx="771525" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Conector de seta reta 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8543925" y="1714500"/>
+          <a:ext cx="742950" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conector de seta reta 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9144000" y="771526"/>
+          <a:ext cx="0" cy="971549"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector de seta reta 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10363200" y="171452"/>
+          <a:ext cx="0" cy="3457573"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Conector de seta reta 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10972800" y="171452"/>
+          <a:ext cx="9525" cy="809623"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7938</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Conector de seta reta 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11001376" y="952503"/>
+          <a:ext cx="7937" cy="396872"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7938</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7938</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Conector de seta reta 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11009313" y="1335090"/>
+          <a:ext cx="0" cy="1911348"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7938</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Conector de seta reta 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11001376" y="3230565"/>
+          <a:ext cx="7937" cy="396872"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -2843,7 +3548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -3008,151 +3713,421 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H21"/>
+  <dimension ref="C1:BK21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H15"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AX23" sqref="AX23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="22" max="83" width="2.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="6" t="s">
+    <row r="1" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="Q1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="C2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+    <row r="3" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="BA3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB3" s="16"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="16"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="16"/>
+      <c r="BH3" s="16"/>
+      <c r="BI3" s="16"/>
+      <c r="BJ3" s="16"/>
+      <c r="BK3" s="16"/>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="8" t="s">
+    <row r="5" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="K5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="BA5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB5" s="17"/>
+      <c r="BC5" s="17"/>
+      <c r="BD5" s="17"/>
+      <c r="BE5" s="17"/>
+      <c r="BF5" s="17"/>
+      <c r="BG5" s="17"/>
+      <c r="BH5" s="17"/>
+      <c r="BI5" s="17"/>
+      <c r="BJ5" s="17"/>
+      <c r="BK5" s="17"/>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
+    <row r="6" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="S6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+    <row r="7" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="P7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7">
+        <v>40</v>
+      </c>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="15"/>
+      <c r="BA7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB7" s="18"/>
+      <c r="BC7" s="18"/>
+      <c r="BD7" s="18"/>
+      <c r="BE7" s="18"/>
+      <c r="BF7" s="18"/>
+      <c r="BG7" s="18"/>
+      <c r="BH7" s="18"/>
+      <c r="BI7" s="18"/>
+      <c r="BJ7" s="18"/>
+      <c r="BK7" s="18"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+    <row r="8" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="S8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="15"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+    <row r="9" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="Q9">
+        <v>600</v>
+      </c>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="15"/>
+      <c r="BA9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB9" s="19"/>
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="19"/>
+      <c r="BF9" s="19"/>
+      <c r="BG9" s="19"/>
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="19"/>
+      <c r="BJ9" s="19"/>
+      <c r="BK9" s="19"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
+    <row r="10" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="15"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
+    <row r="11" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="15"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
+    <row r="12" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="15"/>
+      <c r="AT12" s="15"/>
+      <c r="AU12" s="15"/>
+      <c r="AV12" s="15"/>
+      <c r="AW12" s="15"/>
+      <c r="AX12" s="15"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+    <row r="13" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
+    <row r="14" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
+    <row r="15" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="11" t="s">
+    <row r="16" spans="3:63" x14ac:dyDescent="0.25">
+      <c r="C16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="S18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H21" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="K5:N9"/>
+    <mergeCell ref="BA3:BK3"/>
+    <mergeCell ref="BA5:BK5"/>
+    <mergeCell ref="BA7:BK7"/>
+    <mergeCell ref="BA9:BK9"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C2:H3"/>
     <mergeCell ref="C4:H4"/>
@@ -3162,5 +4137,6 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/ws-11187.xlsx
+++ b/docs/ws-11187.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ClienteServidor" sheetId="1" r:id="rId1"/>
     <sheet name="DOM" sheetId="2" r:id="rId2"/>
-    <sheet name="Tables" sheetId="3" r:id="rId3"/>
-    <sheet name="Layouts" sheetId="4" r:id="rId4"/>
+    <sheet name="Plan1" sheetId="5" r:id="rId3"/>
+    <sheet name="Tables" sheetId="3" r:id="rId4"/>
+    <sheet name="Layouts" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>HTML</t>
   </si>
@@ -148,12 +149,15 @@
   <si>
     <t>conteúdo</t>
   </si>
+  <si>
+    <t>BOX MODEL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +169,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -278,17 +289,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -303,26 +333,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2661,6 +2675,823 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591176" y="104775"/>
+          <a:ext cx="933450" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>divMain</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="838200"/>
+          <a:ext cx="876301" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>hdrTopBar</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Retângulo 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="828675"/>
+          <a:ext cx="1162049" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>navMainOptions</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Retângulo 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="847725"/>
+          <a:ext cx="1028700" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>sctContent</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Retângulo 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7943850" y="847725"/>
+          <a:ext cx="1028700" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>ftrBottomBar</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Retângulo 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153025" y="1800225"/>
+          <a:ext cx="1352550" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>asdContentOptions</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Retângulo 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905625" y="1828800"/>
+          <a:ext cx="1028700" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>divContent</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Retângulo 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5305425" y="2552700"/>
+          <a:ext cx="1028700" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>ulLayouts</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Retângulo 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="3343275"/>
+          <a:ext cx="1028700" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>li</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Retângulo 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5886450" y="3352800"/>
+          <a:ext cx="1028700" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>li</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Retângulo 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="4152900"/>
+          <a:ext cx="1028700" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>a</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Retângulo 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5886450" y="4162425"/>
+          <a:ext cx="1028700" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>a</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Retângulo 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171449" y="2562225"/>
+          <a:ext cx="2085975" cy="2419350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>box 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Retângulo 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409576" y="2657475"/>
+          <a:ext cx="1638299" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>box 2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3645,7 +4476,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3657,6 +4488,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A11:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3666,11 +4525,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3690,15 +4549,15 @@
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="I9" s="4"/>
+      <c r="I9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3711,12 +4570,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:BK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AX23" sqref="AX23"/>
+    <sheetView topLeftCell="F10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20:O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3730,14 +4589,14 @@
       </c>
     </row>
     <row r="2" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
       <c r="J2" t="s">
         <v>27</v>
       </c>
@@ -3746,35 +4605,35 @@
       </c>
     </row>
     <row r="3" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="BA3" s="16" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="BA3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="BB3" s="16"/>
-      <c r="BC3" s="16"/>
-      <c r="BD3" s="16"/>
-      <c r="BE3" s="16"/>
-      <c r="BF3" s="16"/>
-      <c r="BG3" s="16"/>
-      <c r="BH3" s="16"/>
-      <c r="BI3" s="16"/>
-      <c r="BJ3" s="16"/>
-      <c r="BK3" s="16"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11"/>
+      <c r="BH3" s="11"/>
+      <c r="BI3" s="11"/>
+      <c r="BJ3" s="11"/>
+      <c r="BK3" s="11"/>
     </row>
     <row r="4" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="K4" t="s">
         <v>28</v>
       </c>
@@ -3783,7 +4642,7 @@
       </c>
     </row>
     <row r="5" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -3792,7 +4651,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="19" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="10" t="s">
@@ -3801,27 +4660,27 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="BA5" s="17" t="s">
+      <c r="BA5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="BB5" s="17"/>
-      <c r="BC5" s="17"/>
-      <c r="BD5" s="17"/>
-      <c r="BE5" s="17"/>
-      <c r="BF5" s="17"/>
-      <c r="BG5" s="17"/>
-      <c r="BH5" s="17"/>
-      <c r="BI5" s="17"/>
-      <c r="BJ5" s="17"/>
-      <c r="BK5" s="17"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
     </row>
     <row r="6" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C6" s="9"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
+      <c r="H6" s="19"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -3829,34 +4688,34 @@
       <c r="S6" t="s">
         <v>33</v>
       </c>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="15"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="15"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
     </row>
     <row r="7" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C7" s="9"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
+      <c r="H7" s="19"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -3867,47 +4726,47 @@
       <c r="R7">
         <v>40</v>
       </c>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="12"/>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
-      <c r="AV7" s="12"/>
-      <c r="AW7" s="12"/>
-      <c r="AX7" s="15"/>
-      <c r="BA7" s="18" t="s">
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="7"/>
+      <c r="BA7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="BB7" s="18"/>
-      <c r="BC7" s="18"/>
-      <c r="BD7" s="18"/>
-      <c r="BE7" s="18"/>
-      <c r="BF7" s="18"/>
-      <c r="BG7" s="18"/>
-      <c r="BH7" s="18"/>
-      <c r="BI7" s="18"/>
-      <c r="BJ7" s="18"/>
-      <c r="BK7" s="18"/>
+      <c r="BB7" s="13"/>
+      <c r="BC7" s="13"/>
+      <c r="BD7" s="13"/>
+      <c r="BE7" s="13"/>
+      <c r="BF7" s="13"/>
+      <c r="BG7" s="13"/>
+      <c r="BH7" s="13"/>
+      <c r="BI7" s="13"/>
+      <c r="BJ7" s="13"/>
+      <c r="BK7" s="13"/>
     </row>
     <row r="8" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C8" s="9"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
+      <c r="H8" s="19"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -3915,34 +4774,34 @@
       <c r="S8" t="s">
         <v>34</v>
       </c>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="14"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="14"/>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="15"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="7"/>
     </row>
     <row r="9" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C9" s="9"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="19"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -3950,163 +4809,163 @@
       <c r="Q9">
         <v>600</v>
       </c>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="12"/>
-      <c r="AX9" s="15"/>
-      <c r="BA9" s="19" t="s">
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5"/>
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="7"/>
+      <c r="BA9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="BB9" s="19"/>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="19"/>
-      <c r="BE9" s="19"/>
-      <c r="BF9" s="19"/>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="19"/>
-      <c r="BI9" s="19"/>
-      <c r="BJ9" s="19"/>
-      <c r="BK9" s="19"/>
+      <c r="BB9" s="14"/>
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="14"/>
+      <c r="BE9" s="14"/>
+      <c r="BF9" s="14"/>
+      <c r="BG9" s="14"/>
+      <c r="BH9" s="14"/>
+      <c r="BI9" s="14"/>
+      <c r="BJ9" s="14"/>
+      <c r="BK9" s="14"/>
     </row>
     <row r="10" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C10" s="9"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
-      <c r="AM10" s="14"/>
-      <c r="AN10" s="14"/>
-      <c r="AO10" s="14"/>
-      <c r="AP10" s="14"/>
-      <c r="AQ10" s="14"/>
-      <c r="AR10" s="14"/>
-      <c r="AS10" s="14"/>
-      <c r="AT10" s="14"/>
-      <c r="AU10" s="14"/>
-      <c r="AV10" s="14"/>
-      <c r="AW10" s="12"/>
-      <c r="AX10" s="15"/>
+      <c r="H10" s="19"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="7"/>
     </row>
     <row r="11" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C11" s="9"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="12"/>
-      <c r="AV11" s="12"/>
-      <c r="AW11" s="12"/>
-      <c r="AX11" s="15"/>
+      <c r="H11" s="19"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="7"/>
     </row>
     <row r="12" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C12" s="9"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="19"/>
       <c r="L12" t="s">
         <v>29</v>
       </c>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="15"/>
-      <c r="AM12" s="15"/>
-      <c r="AN12" s="15"/>
-      <c r="AO12" s="15"/>
-      <c r="AP12" s="15"/>
-      <c r="AQ12" s="15"/>
-      <c r="AR12" s="15"/>
-      <c r="AS12" s="15"/>
-      <c r="AT12" s="15"/>
-      <c r="AU12" s="15"/>
-      <c r="AV12" s="15"/>
-      <c r="AW12" s="15"/>
-      <c r="AX12" s="15"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
     </row>
     <row r="13" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C13" s="9"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C14" s="9"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C15" s="9"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
+      <c r="H15" s="19"/>
       <c r="L15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="18" spans="8:19" x14ac:dyDescent="0.25">
       <c r="S18" t="s">
@@ -4123,17 +4982,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="K5:N9"/>
-    <mergeCell ref="BA3:BK3"/>
-    <mergeCell ref="BA5:BK5"/>
-    <mergeCell ref="BA7:BK7"/>
-    <mergeCell ref="BA9:BK9"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C2:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:C15"/>
     <mergeCell ref="D5:G15"/>
     <mergeCell ref="H5:H15"/>
+    <mergeCell ref="K5:N9"/>
+    <mergeCell ref="BA3:BK3"/>
+    <mergeCell ref="BA5:BK5"/>
+    <mergeCell ref="BA7:BK7"/>
+    <mergeCell ref="BA9:BK9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/ws-11187.xlsx
+++ b/docs/ws-11187.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ClienteServidor" sheetId="1" r:id="rId1"/>
@@ -300,25 +300,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -333,10 +321,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4475,8 +4475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4490,19 +4490,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A11:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4525,11 +4525,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4549,15 +4549,15 @@
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="I9" s="8"/>
+      <c r="I9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4589,14 +4589,14 @@
       </c>
     </row>
     <row r="2" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
       <c r="J2" t="s">
         <v>27</v>
       </c>
@@ -4605,35 +4605,35 @@
       </c>
     </row>
     <row r="3" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="BA3" s="11" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="BA3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
-      <c r="BH3" s="11"/>
-      <c r="BI3" s="11"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
+      <c r="BB3" s="17"/>
+      <c r="BC3" s="17"/>
+      <c r="BD3" s="17"/>
+      <c r="BE3" s="17"/>
+      <c r="BF3" s="17"/>
+      <c r="BG3" s="17"/>
+      <c r="BH3" s="17"/>
+      <c r="BI3" s="17"/>
+      <c r="BJ3" s="17"/>
+      <c r="BK3" s="17"/>
     </row>
     <row r="4" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
       <c r="K4" t="s">
         <v>28</v>
       </c>
@@ -4642,49 +4642,49 @@
       </c>
     </row>
     <row r="5" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="19" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="BA5" s="12" t="s">
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="BA5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="BB5" s="12"/>
-      <c r="BC5" s="12"/>
-      <c r="BD5" s="12"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="12"/>
-      <c r="BG5" s="12"/>
-      <c r="BH5" s="12"/>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="12"/>
-      <c r="BK5" s="12"/>
+      <c r="BB5" s="18"/>
+      <c r="BC5" s="18"/>
+      <c r="BD5" s="18"/>
+      <c r="BE5" s="18"/>
+      <c r="BF5" s="18"/>
+      <c r="BG5" s="18"/>
+      <c r="BH5" s="18"/>
+      <c r="BI5" s="18"/>
+      <c r="BJ5" s="18"/>
+      <c r="BK5" s="18"/>
     </row>
     <row r="6" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C6" s="18"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="19"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
       <c r="S6" t="s">
         <v>33</v>
       </c>
@@ -4710,16 +4710,16 @@
       <c r="AX6" s="7"/>
     </row>
     <row r="7" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C7" s="18"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="19"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
       <c r="P7" t="s">
         <v>30</v>
       </c>
@@ -4746,31 +4746,31 @@
       <c r="AV7" s="4"/>
       <c r="AW7" s="4"/>
       <c r="AX7" s="7"/>
-      <c r="BA7" s="13" t="s">
+      <c r="BA7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="BB7" s="13"/>
-      <c r="BC7" s="13"/>
-      <c r="BD7" s="13"/>
-      <c r="BE7" s="13"/>
-      <c r="BF7" s="13"/>
-      <c r="BG7" s="13"/>
-      <c r="BH7" s="13"/>
-      <c r="BI7" s="13"/>
-      <c r="BJ7" s="13"/>
-      <c r="BK7" s="13"/>
+      <c r="BB7" s="19"/>
+      <c r="BC7" s="19"/>
+      <c r="BD7" s="19"/>
+      <c r="BE7" s="19"/>
+      <c r="BF7" s="19"/>
+      <c r="BG7" s="19"/>
+      <c r="BH7" s="19"/>
+      <c r="BI7" s="19"/>
+      <c r="BJ7" s="19"/>
+      <c r="BK7" s="19"/>
     </row>
     <row r="8" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C8" s="18"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="19"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
       <c r="S8" t="s">
         <v>34</v>
       </c>
@@ -4796,16 +4796,16 @@
       <c r="AX8" s="7"/>
     </row>
     <row r="9" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C9" s="18"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="19"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
       <c r="Q9">
         <v>600</v>
       </c>
@@ -4829,27 +4829,27 @@
       <c r="AV9" s="6"/>
       <c r="AW9" s="4"/>
       <c r="AX9" s="7"/>
-      <c r="BA9" s="14" t="s">
+      <c r="BA9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="BB9" s="14"/>
-      <c r="BC9" s="14"/>
-      <c r="BD9" s="14"/>
-      <c r="BE9" s="14"/>
-      <c r="BF9" s="14"/>
-      <c r="BG9" s="14"/>
-      <c r="BH9" s="14"/>
-      <c r="BI9" s="14"/>
-      <c r="BJ9" s="14"/>
-      <c r="BK9" s="14"/>
+      <c r="BB9" s="20"/>
+      <c r="BC9" s="20"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="20"/>
+      <c r="BF9" s="20"/>
+      <c r="BG9" s="20"/>
+      <c r="BH9" s="20"/>
+      <c r="BI9" s="20"/>
+      <c r="BJ9" s="20"/>
+      <c r="BK9" s="20"/>
     </row>
     <row r="10" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C10" s="18"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="19"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="6"/>
@@ -4872,12 +4872,12 @@
       <c r="AX10" s="7"/>
     </row>
     <row r="11" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C11" s="18"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="19"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
@@ -4900,12 +4900,12 @@
       <c r="AX11" s="7"/>
     </row>
     <row r="12" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C12" s="18"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="19"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
       <c r="L12" t="s">
         <v>29</v>
       </c>
@@ -4931,41 +4931,41 @@
       <c r="AX12" s="7"/>
     </row>
     <row r="13" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C13" s="18"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="19"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C14" s="18"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="19"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C15" s="18"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="19"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
       <c r="L15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="18" spans="8:19" x14ac:dyDescent="0.25">
       <c r="S18" t="s">
@@ -4982,17 +4982,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K5:N9"/>
+    <mergeCell ref="BA3:BK3"/>
+    <mergeCell ref="BA5:BK5"/>
+    <mergeCell ref="BA7:BK7"/>
+    <mergeCell ref="BA9:BK9"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C2:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:C15"/>
     <mergeCell ref="D5:G15"/>
     <mergeCell ref="H5:H15"/>
-    <mergeCell ref="K5:N9"/>
-    <mergeCell ref="BA3:BK3"/>
-    <mergeCell ref="BA5:BK5"/>
-    <mergeCell ref="BA7:BK7"/>
-    <mergeCell ref="BA9:BK9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/ws-11187.xlsx
+++ b/docs/ws-11187.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ClienteServidor" sheetId="1" r:id="rId1"/>
     <sheet name="DOM" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan1" sheetId="5" r:id="rId3"/>
-    <sheet name="Tables" sheetId="3" r:id="rId4"/>
-    <sheet name="Layouts" sheetId="4" r:id="rId5"/>
+    <sheet name="Plan2" sheetId="6" r:id="rId3"/>
+    <sheet name="Plan1" sheetId="5" r:id="rId4"/>
+    <sheet name="Tables" sheetId="3" r:id="rId5"/>
+    <sheet name="Layouts" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -309,22 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -338,6 +324,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4109,6 +4110,120 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="3810000"/>
+          <a:ext cx="4900083" cy="3016250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>613832</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179918</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Retângulo 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2455332" y="3810001"/>
+          <a:ext cx="2444751" cy="1513417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>margin: 0 auto;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4475,7 +4590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -4487,6 +4602,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A11:D11"/>
   <sheetViews>
@@ -4514,7 +4641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:I9"/>
   <sheetViews>
@@ -4570,12 +4697,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:BK21"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:O38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4589,14 +4716,14 @@
       </c>
     </row>
     <row r="2" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="J2" t="s">
         <v>27</v>
       </c>
@@ -4605,35 +4732,35 @@
       </c>
     </row>
     <row r="3" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="BA3" s="17" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="BA3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="BB3" s="17"/>
-      <c r="BC3" s="17"/>
-      <c r="BD3" s="17"/>
-      <c r="BE3" s="17"/>
-      <c r="BF3" s="17"/>
-      <c r="BG3" s="17"/>
-      <c r="BH3" s="17"/>
-      <c r="BI3" s="17"/>
-      <c r="BJ3" s="17"/>
-      <c r="BK3" s="17"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="12"/>
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="12"/>
+      <c r="BJ3" s="12"/>
+      <c r="BK3" s="12"/>
     </row>
     <row r="4" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
       <c r="K4" t="s">
         <v>28</v>
       </c>
@@ -4642,49 +4769,49 @@
       </c>
     </row>
     <row r="5" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="BA5" s="18" t="s">
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="BA5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="BB5" s="18"/>
-      <c r="BC5" s="18"/>
-      <c r="BD5" s="18"/>
-      <c r="BE5" s="18"/>
-      <c r="BF5" s="18"/>
-      <c r="BG5" s="18"/>
-      <c r="BH5" s="18"/>
-      <c r="BI5" s="18"/>
-      <c r="BJ5" s="18"/>
-      <c r="BK5" s="18"/>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="13"/>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="13"/>
+      <c r="BG5" s="13"/>
+      <c r="BH5" s="13"/>
+      <c r="BI5" s="13"/>
+      <c r="BJ5" s="13"/>
+      <c r="BK5" s="13"/>
     </row>
     <row r="6" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="20"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
       <c r="S6" t="s">
         <v>33</v>
       </c>
@@ -4710,16 +4837,16 @@
       <c r="AX6" s="7"/>
     </row>
     <row r="7" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="20"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
       <c r="P7" t="s">
         <v>30</v>
       </c>
@@ -4746,31 +4873,31 @@
       <c r="AV7" s="4"/>
       <c r="AW7" s="4"/>
       <c r="AX7" s="7"/>
-      <c r="BA7" s="19" t="s">
+      <c r="BA7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="BB7" s="19"/>
-      <c r="BC7" s="19"/>
-      <c r="BD7" s="19"/>
-      <c r="BE7" s="19"/>
-      <c r="BF7" s="19"/>
-      <c r="BG7" s="19"/>
-      <c r="BH7" s="19"/>
-      <c r="BI7" s="19"/>
-      <c r="BJ7" s="19"/>
-      <c r="BK7" s="19"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="14"/>
+      <c r="BG7" s="14"/>
+      <c r="BH7" s="14"/>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="14"/>
+      <c r="BK7" s="14"/>
     </row>
     <row r="8" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="20"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
       <c r="S8" t="s">
         <v>34</v>
       </c>
@@ -4796,16 +4923,16 @@
       <c r="AX8" s="7"/>
     </row>
     <row r="9" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="20"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
       <c r="Q9">
         <v>600</v>
       </c>
@@ -4829,27 +4956,27 @@
       <c r="AV9" s="6"/>
       <c r="AW9" s="4"/>
       <c r="AX9" s="7"/>
-      <c r="BA9" s="20" t="s">
+      <c r="BA9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="BB9" s="20"/>
-      <c r="BC9" s="20"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="20"/>
-      <c r="BF9" s="20"/>
-      <c r="BG9" s="20"/>
-      <c r="BH9" s="20"/>
-      <c r="BI9" s="20"/>
-      <c r="BJ9" s="20"/>
-      <c r="BK9" s="20"/>
+      <c r="BB9" s="15"/>
+      <c r="BC9" s="15"/>
+      <c r="BD9" s="15"/>
+      <c r="BE9" s="15"/>
+      <c r="BF9" s="15"/>
+      <c r="BG9" s="15"/>
+      <c r="BH9" s="15"/>
+      <c r="BI9" s="15"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="15"/>
     </row>
     <row r="10" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="20"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="6"/>
@@ -4872,12 +4999,12 @@
       <c r="AX10" s="7"/>
     </row>
     <row r="11" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="20"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
@@ -4900,12 +5027,12 @@
       <c r="AX11" s="7"/>
     </row>
     <row r="12" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="20"/>
       <c r="L12" t="s">
         <v>29</v>
       </c>
@@ -4931,41 +5058,41 @@
       <c r="AX12" s="7"/>
     </row>
     <row r="13" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="20"/>
       <c r="L15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="3:63" x14ac:dyDescent="0.25">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="18" spans="8:19" x14ac:dyDescent="0.25">
       <c r="S18" t="s">
@@ -4982,17 +5109,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="K5:N9"/>
-    <mergeCell ref="BA3:BK3"/>
-    <mergeCell ref="BA5:BK5"/>
-    <mergeCell ref="BA7:BK7"/>
-    <mergeCell ref="BA9:BK9"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C2:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:C15"/>
     <mergeCell ref="D5:G15"/>
     <mergeCell ref="H5:H15"/>
+    <mergeCell ref="K5:N9"/>
+    <mergeCell ref="BA3:BK3"/>
+    <mergeCell ref="BA5:BK5"/>
+    <mergeCell ref="BA7:BK7"/>
+    <mergeCell ref="BA9:BK9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
